--- a/Intro to Machine Learning/Assignment_3_ Submission_Template.xlsx
+++ b/Intro to Machine Learning/Assignment_3_ Submission_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashi\Downloads\Contracts\UCSC\UCSC Ext\Resources_09_2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lye\Documents\GitHub\python-assignments\Intro to Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19872" windowHeight="8436" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -3901,7 +3901,7 @@
     <t>[Optional] Type your observations on PCA, histogram classifiers and Bayesian classifiers in this space.</t>
   </si>
   <si>
-    <t>STUDENT NAME (REQUIRED)</t>
+    <t>Laura Ye</t>
   </si>
 </sst>
 </file>
@@ -4365,8 +4365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ADE98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -35943,7 +35943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Intro to Machine Learning/Assignment_3_ Submission_Template.xlsx
+++ b/Intro to Machine Learning/Assignment_3_ Submission_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Laura Ye</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Training accuracy attained using histograms</t>
-  </si>
-  <si>
-    <t>%</t>
   </si>
   <si>
     <t>Training accuracy attained using Bayesian</t>
@@ -325,6 +322,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>602191</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>61171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2430991" cy="2438611"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ADE98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32146,16 +32186,16 @@
       <c r="A97" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>33</v>
+      <c r="B97" s="1">
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B98" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="B98" s="1">
+        <v>31.3</v>
       </c>
     </row>
   </sheetData>
@@ -32168,11 +32208,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32185,13 +32226,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="113.88671875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="17"/>
+    <col min="2" max="3" width="8.88671875" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="304.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
